--- a/CODE/MATLAB_CODES/evaluation_metric/Metrics.xlsx
+++ b/CODE/MATLAB_CODES/evaluation_metric/Metrics.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SURENDRA JAIN\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SURENDRA JAIN\Documents\AJ\Acads\VII sem\Bachelor_Thesis_Project\CODE\MATLAB_CODES\evaluation_metric\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8250"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="7590"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="20">
   <si>
     <t>object</t>
   </si>
@@ -404,10 +404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L29"/>
+  <dimension ref="A2:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -803,6 +803,82 @@
         <v>11</v>
       </c>
     </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" t="s">
+        <v>15</v>
+      </c>
+      <c r="F32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33">
+        <v>0.63349999999999995</v>
+      </c>
+      <c r="D33">
+        <v>0.18790000000000001</v>
+      </c>
+      <c r="E33">
+        <v>0.83620000000000005</v>
+      </c>
+      <c r="F33">
+        <v>8.77E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34">
+        <v>0.70740000000000003</v>
+      </c>
+      <c r="D34">
+        <v>0.1492</v>
+      </c>
+      <c r="E34">
+        <v>0.83620000000000005</v>
+      </c>
+      <c r="F34">
+        <v>8.77E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35">
+        <v>0.59570000000000001</v>
+      </c>
+      <c r="D35">
+        <v>0.17150000000000001</v>
+      </c>
+      <c r="E35">
+        <v>0.72729999999999995</v>
+      </c>
+      <c r="F35">
+        <v>0.11899999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/CODE/MATLAB_CODES/evaluation_metric/Metrics.xlsx
+++ b/CODE/MATLAB_CODES/evaluation_metric/Metrics.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="20">
   <si>
     <t>object</t>
   </si>
@@ -406,8 +406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -812,9 +812,6 @@
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>18</v>
-      </c>
       <c r="C32" t="s">
         <v>15</v>
       </c>

--- a/CODE/MATLAB_CODES/evaluation_metric/Metrics.xlsx
+++ b/CODE/MATLAB_CODES/evaluation_metric/Metrics.xlsx
@@ -15,6 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="21">
   <si>
     <t>object</t>
   </si>
@@ -84,6 +85,9 @@
   </si>
   <si>
     <t>noPost</t>
+  </si>
+  <si>
+    <t>H &amp; E Training</t>
   </si>
 </sst>
 </file>
@@ -404,10 +408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L35"/>
+  <dimension ref="A2:L44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -876,6 +880,48 @@
         <v>0.11899999999999999</v>
       </c>
     </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41" t="s">
+        <v>16</v>
+      </c>
+      <c r="E41" t="s">
+        <v>15</v>
+      </c>
+      <c r="F41" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/CODE/MATLAB_CODES/evaluation_metric/Metrics.xlsx
+++ b/CODE/MATLAB_CODES/evaluation_metric/Metrics.xlsx
@@ -410,8 +410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -911,15 +911,51 @@
       <c r="B42" t="s">
         <v>17</v>
       </c>
+      <c r="C42">
+        <v>0.60519999999999996</v>
+      </c>
+      <c r="D42">
+        <v>0.2235</v>
+      </c>
+      <c r="E42">
+        <v>0.82650000000000001</v>
+      </c>
+      <c r="F42">
+        <v>0.11899999999999999</v>
+      </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>3</v>
       </c>
+      <c r="C43">
+        <v>0.67689999999999995</v>
+      </c>
+      <c r="D43">
+        <v>0.1852</v>
+      </c>
+      <c r="E43">
+        <v>0.82650000000000001</v>
+      </c>
+      <c r="F43">
+        <v>0.11899999999999999</v>
+      </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>4</v>
+      </c>
+      <c r="C44">
+        <v>0.56520000000000004</v>
+      </c>
+      <c r="D44">
+        <v>0.20619999999999999</v>
+      </c>
+      <c r="E44">
+        <v>0.71879999999999999</v>
+      </c>
+      <c r="F44">
+        <v>0.14760000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/CODE/MATLAB_CODES/evaluation_metric/Metrics.xlsx
+++ b/CODE/MATLAB_CODES/evaluation_metric/Metrics.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SURENDRA JAIN\Documents\AJ\Acads\VII sem\Bachelor_Thesis_Project\CODE\MATLAB_CODES\evaluation_metric\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SURENDRA JAIN\Documents\AJ\Acads\VIII sem\Bachelor_Thesis_Project\CODE\MATLAB_CODES\evaluation_metric\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="22">
   <si>
     <t>object</t>
   </si>
@@ -88,6 +87,9 @@
   </si>
   <si>
     <t>H &amp; E Training</t>
+  </si>
+  <si>
+    <t>HE &amp; RGB Training</t>
   </si>
 </sst>
 </file>
@@ -408,10 +410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L44"/>
+  <dimension ref="A2:L53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K42" sqref="K42"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K52" sqref="K52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -958,6 +960,84 @@
         <v>0.14760000000000001</v>
       </c>
     </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
+        <v>15</v>
+      </c>
+      <c r="D50" t="s">
+        <v>16</v>
+      </c>
+      <c r="E50" t="s">
+        <v>15</v>
+      </c>
+      <c r="F50" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>17</v>
+      </c>
+      <c r="C51">
+        <v>0.62209999999999999</v>
+      </c>
+      <c r="D51">
+        <v>0.19170000000000001</v>
+      </c>
+      <c r="E51">
+        <v>0.84119999999999995</v>
+      </c>
+      <c r="F51">
+        <v>8.5699999999999998E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>3</v>
+      </c>
+      <c r="C52">
+        <v>0.70469999999999999</v>
+      </c>
+      <c r="D52">
+        <v>0.15959999999999999</v>
+      </c>
+      <c r="E52">
+        <v>0.84119999999999995</v>
+      </c>
+      <c r="F52">
+        <v>8.5699999999999998E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>4</v>
+      </c>
+      <c r="C53">
+        <v>0.59430000000000005</v>
+      </c>
+      <c r="D53">
+        <v>0.1855</v>
+      </c>
+      <c r="E53">
+        <v>0.73470000000000002</v>
+      </c>
+      <c r="F53">
+        <v>0.1208</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/CODE/MATLAB_CODES/evaluation_metric/Metrics.xlsx
+++ b/CODE/MATLAB_CODES/evaluation_metric/Metrics.xlsx
@@ -412,8 +412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K52" sqref="K52"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53:D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
